--- a/Avance de proyecto/Product Backlog.xlsx
+++ b/Avance de proyecto/Product Backlog.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anny_\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\9no semestre\Hazmen Proyecto Integral\Nueva carpeta\ProyIntComDat25B_Carmelitos-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AE1BD22-05C3-47D8-9AC1-78DEDDA8DD6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A97EF8EE-2579-40E7-B8E6-59404DC0F7A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Historias de Usuario" sheetId="1" r:id="rId1"/>
     <sheet name="Instructivo" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Historias de Usuario'!$A$1:$I$25</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Historias de Usuario'!$A$1:$I$19</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Instructivo!$A$1:$D$13</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="82">
   <si>
     <t>Columna</t>
   </si>
@@ -122,9 +122,6 @@
     <t>H-13</t>
   </si>
   <si>
-    <t>H-14</t>
-  </si>
-  <si>
     <t>Sprint 3</t>
   </si>
   <si>
@@ -143,9 +140,6 @@
     <t>Pendiente</t>
   </si>
   <si>
-    <t>H-15</t>
-  </si>
-  <si>
     <t>Como equipo, necesitamos presentar los resultados del proyecto y la experiencia de integración.</t>
   </si>
   <si>
@@ -213,13 +207,85 @@
   </si>
   <si>
     <t>Se está modelando el flujo con base en buenas prácticas BPMN.</t>
+  </si>
+  <si>
+    <t>H-2</t>
+  </si>
+  <si>
+    <t>H-3</t>
+  </si>
+  <si>
+    <t>H-4</t>
+  </si>
+  <si>
+    <t>H-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como, equipo, necesito definir una porblemtica y plantear una solución </t>
+  </si>
+  <si>
+    <t>Definir problema y solución</t>
+  </si>
+  <si>
+    <t>Sprint 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alto </t>
+  </si>
+  <si>
+    <t>Explican los antecentes del problema y como llegar a una solución para disminuirlos.</t>
+  </si>
+  <si>
+    <t>Como equipo, necesito recopilar evidencias (fotos, videos, formularios, listas) para documentar la ejecución del proyecto.</t>
+  </si>
+  <si>
+    <t>H-5</t>
+  </si>
+  <si>
+    <t>H-6</t>
+  </si>
+  <si>
+    <t>H-7</t>
+  </si>
+  <si>
+    <t>Evidencias del proyecto</t>
+  </si>
+  <si>
+    <t>Las evidencias se almacenan en carpetas o en el Classroom, con fecha, actividad y equipo responsable.</t>
+  </si>
+  <si>
+    <t>Como equipo, necesito crear un Classroom oficial del proyecto Integración Escolar para centralizar los materiales.</t>
+  </si>
+  <si>
+    <t>Como equipo, necesito subir al Classroom todas las diapositivas, guías y listas de preguntas para que puedan consultarse posteriormente.</t>
+  </si>
+  <si>
+    <t>Como estudiante, necesito responder una encuesta de satisfacción en Google Forms para dar mi opinión sobre las actividades.</t>
+  </si>
+  <si>
+    <t>Encuesta de satisfacción</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carga de recursos </t>
+  </si>
+  <si>
+    <t>Creación de Classroom</t>
+  </si>
+  <si>
+    <t>El Classroom contiene diapositivas, formularios, evidencias y materiales organizados en secciones, y el código se comparte con los estudiantes.</t>
+  </si>
+  <si>
+    <t>Todos los archivos relevantes están visibles, ordenados y etiquetados dentro del Classroom.</t>
+  </si>
+  <si>
+    <t>Los estudiantes reciben el enlace, responden el formulario y se almacenan sus respuestas correctamente.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -252,6 +318,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -304,7 +378,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -344,6 +418,18 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -359,10 +445,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -654,36 +736,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="44" zoomScaleNormal="69" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView tabSelected="1" topLeftCell="C2" zoomScale="78" zoomScaleNormal="78" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.453125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.453125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="88.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.54296875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="1.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="88.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.5703125" style="2" customWidth="1"/>
     <col min="5" max="5" width="13" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.81640625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="85.26953125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="2.1796875" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="11.453125" style="2"/>
+    <col min="6" max="6" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="85.28515625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="2.140625" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="36" x14ac:dyDescent="0.8">
+    <row r="1" spans="2:9" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="2:9" ht="21" x14ac:dyDescent="0.5">
+    <row r="2" spans="2:9" ht="21" x14ac:dyDescent="0.35">
       <c r="B2" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
         <v>2</v>
       </c>
@@ -709,283 +791,363 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="58" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="11"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="15"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B6" s="11"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="15"/>
-    </row>
-    <row r="7" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="11"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="15"/>
-    </row>
-    <row r="8" spans="2:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="11"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="15"/>
-    </row>
-    <row r="9" spans="2:9" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="11"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="15"/>
-    </row>
-    <row r="10" spans="2:9" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="11"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="15"/>
-    </row>
-    <row r="11" spans="2:9" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="11"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="15"/>
-    </row>
-    <row r="12" spans="2:9" ht="22" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="11" t="s">
+    <row r="5" spans="2:9" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="7">
+        <v>5</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="11">
+        <v>5</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="11">
+        <v>5</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="11">
+        <v>5</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="11">
+        <v>5</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B10" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="11">
+        <v>2</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="12">
+        <v>2</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="11" t="s">
+      <c r="C12" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="11">
-        <v>5</v>
+      <c r="F12" s="12">
+        <v>2</v>
       </c>
       <c r="G12" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="H12" s="11" t="s">
+      <c r="I12" s="15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="12">
+        <v>4</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="I12" s="15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" s="11" t="s">
+      <c r="I13" s="15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B14" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="F13" s="11">
-        <v>5</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="H13" s="11" t="s">
+      <c r="F14" s="12">
+        <v>3</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="I13" s="15" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B14" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F14" s="11">
-        <v>5</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="H14" s="11" t="s">
+      <c r="I14" s="20" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B15" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" s="12">
+        <v>4</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="I14" s="15" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B15" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" s="14" t="s">
+      <c r="I15" s="18" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B16" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" s="12">
+        <v>4</v>
+      </c>
+      <c r="G16" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="E15" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F15" s="11">
-        <v>5</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="H15" s="11" t="s">
+      <c r="H16" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="I15" s="16" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="B16" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F16" s="11">
-        <v>2</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="H16" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="I16" s="15" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I16" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B17" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>44</v>
+      <c r="C17" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>76</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F17" s="12">
         <v>2</v>
       </c>
-      <c r="G17" s="11" t="s">
-        <v>48</v>
+      <c r="G17" s="12" t="s">
+        <v>46</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="I17" s="15" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F18" s="12">
-        <v>2</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="H18" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="I18" s="15" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F19" s="12">
-        <v>4</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="H19" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="I19" s="15" t="s">
-        <v>53</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="I17" s="19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="16"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -1002,26 +1164,26 @@
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.54296875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="27.7265625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="1.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="27.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="86" style="2" customWidth="1"/>
-    <col min="4" max="4" width="2.81640625" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="11.453125" style="2"/>
+    <col min="4" max="4" width="2.85546875" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="36" x14ac:dyDescent="0.8">
+    <row r="1" spans="2:3" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="2:3" ht="21" x14ac:dyDescent="0.5">
+    <row r="2" spans="2:3" ht="21" x14ac:dyDescent="0.35">
       <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1029,7 +1191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:3" ht="45" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
@@ -1037,7 +1199,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="2:3" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:3" ht="90" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1045,7 +1207,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:3" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:3" ht="45" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
         <v>19</v>
       </c>
@@ -1053,7 +1215,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="2:3" ht="217.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:3" ht="225" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>7</v>
       </c>
@@ -1061,7 +1223,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>8</v>
       </c>
@@ -1069,7 +1231,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="2:3" ht="58" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:3" ht="60" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>9</v>
       </c>
@@ -1077,7 +1239,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="2:3" ht="58" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:3" ht="60" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>10</v>
       </c>
@@ -1085,7 +1247,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="2:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>11</v>
       </c>
@@ -1333,20 +1495,20 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="943299af-12c5-4a94-a2c7-c86c78b36c95" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="943299af-12c5-4a94-a2c7-c86c78b36c95" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1369,14 +1531,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD3BA9A9-346E-4AAA-A362-8E1E7B1B6179}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9E01D26-B9F3-482D-8B85-99B6E945AB75}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
@@ -1391,4 +1545,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD3BA9A9-346E-4AAA-A362-8E1E7B1B6179}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>